--- a/data/trans_orig/Q20C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31EB4405-23EC-4BF2-BC65-09E6D861FDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B52177-DD1A-4F81-BD3C-2CFA52585E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9AA18058-48A4-410F-A3B5-61147ADF3EB5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2566C4CF-F36B-45E1-AE8D-E94348951CDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="736">
   <si>
     <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2007 (Tasa respuesta: 1,32%)</t>
   </si>
@@ -140,13 +140,13 @@
     <t>9,01%</t>
   </si>
   <si>
-    <t>39,39%</t>
+    <t>37,3%</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>82,52%</t>
+    <t>78,1%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -155,7 +155,7 @@
     <t>9,6%</t>
   </si>
   <si>
-    <t>40,99%</t>
+    <t>38,5%</t>
   </si>
   <si>
     <t>42,91%</t>
@@ -173,10 +173,10 @@
     <t>28,38%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>36,15%</t>
@@ -194,10 +194,10 @@
     <t>53,01%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -206,2023 +206,2029 @@
     <t>12,86%</t>
   </si>
   <si>
-    <t>54,81%</t>
+    <t>47,85%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>28,53%</t>
+    <t>34,83%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>82,94%</t>
+    <t>83,12%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>62,89%</t>
+    <t>63,19%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>67,08%</t>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>42,96%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>27,34%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2015 (Tasa respuesta: 1,55%)</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
   </si>
   <si>
     <t>51,92%</t>
@@ -2652,7 +2658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77F7A84-8C3C-4E57-AE9C-92730820F40E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FB5A4E-24BA-4261-BC16-F5A0FC9EE936}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4079,10 +4085,10 @@
         <v>139</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4091,13 +4097,13 @@
         <v>6225</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,7 +4124,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -4127,13 +4133,13 @@
         <v>4588</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -4142,13 +4148,13 @@
         <v>4588</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,7 +4175,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -4184,7 +4190,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -4199,7 +4205,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4220,13 @@
         <v>4403</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4229,13 +4235,13 @@
         <v>7948</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -4244,13 +4250,13 @@
         <v>12351</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4324,13 @@
         <v>8870</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -4333,13 +4339,13 @@
         <v>8690</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -4348,13 +4354,13 @@
         <v>17560</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4375,13 @@
         <v>3826</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -4384,13 +4390,13 @@
         <v>10495</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M35" s="7">
         <v>15</v>
@@ -4399,13 +4405,13 @@
         <v>14321</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4426,13 @@
         <v>7818</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -4435,13 +4441,13 @@
         <v>4518</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -4450,13 +4456,13 @@
         <v>12336</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4477,13 @@
         <v>12799</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H37" s="7">
         <v>26</v>
@@ -4486,13 +4492,13 @@
         <v>25309</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -4501,13 +4507,13 @@
         <v>38107</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,7 +4569,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4585,7 +4591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EE0048-AC78-4261-93B3-1AB6093CCCFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D601437-09F3-4649-98E6-476081477CCB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4602,7 +4608,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4709,13 +4715,13 @@
         <v>1051</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4724,7 +4730,7 @@
         <v>2052</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -4739,13 +4745,13 @@
         <v>3102</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4766,13 @@
         <v>1237</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4790,13 +4796,13 @@
         <v>1236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4832,13 @@
         <v>963</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4841,13 +4847,13 @@
         <v>963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,7 +4868,7 @@
         <v>2220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -4877,13 +4883,13 @@
         <v>1005</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4892,13 +4898,13 @@
         <v>3225</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4972,13 @@
         <v>861</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4981,13 +4987,13 @@
         <v>947</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4996,13 +5002,13 @@
         <v>1808</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5059,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5074,13 @@
         <v>1845</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5152,10 +5158,10 @@
         <v>236</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5229,13 @@
         <v>1030</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5238,13 +5244,13 @@
         <v>5982</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -5253,13 +5259,13 @@
         <v>7012</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5280,13 @@
         <v>1749</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -5289,13 +5295,13 @@
         <v>4802</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -5304,13 +5310,13 @@
         <v>6551</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5331,13 @@
         <v>5575</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5340,13 +5346,13 @@
         <v>2911</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5355,13 +5361,13 @@
         <v>8487</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5382,13 @@
         <v>3905</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5391,13 +5397,13 @@
         <v>4204</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5406,13 +5412,13 @@
         <v>8109</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5486,13 @@
         <v>3469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -5495,13 +5501,13 @@
         <v>10003</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -5510,13 +5516,13 @@
         <v>13472</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5537,13 @@
         <v>4891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5546,13 +5552,13 @@
         <v>5540</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -5561,13 +5567,13 @@
         <v>10431</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5588,13 @@
         <v>986</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5597,13 +5603,13 @@
         <v>3506</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5612,13 +5618,13 @@
         <v>4491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5639,13 @@
         <v>3299</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5648,13 +5654,13 @@
         <v>6669</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -5663,13 +5669,13 @@
         <v>9968</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5743,13 @@
         <v>1994</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5758,7 +5764,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5767,13 +5773,13 @@
         <v>1994</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5794,13 @@
         <v>986</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5803,13 +5809,13 @@
         <v>2362</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5818,13 +5824,13 @@
         <v>3349</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5845,13 @@
         <v>1059</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5854,13 +5860,13 @@
         <v>3125</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>320</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5869,13 +5875,13 @@
         <v>4185</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5896,13 @@
         <v>5249</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -5905,13 +5911,13 @@
         <v>5293</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M27" s="7">
         <v>10</v>
@@ -5920,13 +5926,13 @@
         <v>10541</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6000,13 @@
         <v>3053</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6009,13 +6015,13 @@
         <v>2977</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -6024,13 +6030,13 @@
         <v>6030</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6051,13 @@
         <v>3175</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6060,13 +6066,13 @@
         <v>992</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6075,13 +6081,13 @@
         <v>4167</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6102,13 @@
         <v>5065</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -6111,13 +6117,13 @@
         <v>3090</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -6126,13 +6132,13 @@
         <v>8155</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6153,13 @@
         <v>5205</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -6162,13 +6168,13 @@
         <v>10731</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>363</v>
+        <v>40</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -6177,13 +6183,13 @@
         <v>15936</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6257,13 @@
         <v>11456</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H34" s="7">
         <v>20</v>
@@ -6266,13 +6272,13 @@
         <v>21962</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M34" s="7">
         <v>31</v>
@@ -6281,13 +6287,13 @@
         <v>33418</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6308,13 @@
         <v>12038</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -6317,13 +6323,13 @@
         <v>13696</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
@@ -6332,13 +6338,13 @@
         <v>25734</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6359,13 @@
         <v>14531</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -6368,13 +6374,13 @@
         <v>16644</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -6383,13 +6389,13 @@
         <v>31175</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6410,13 @@
         <v>21756</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>269</v>
+        <v>392</v>
       </c>
       <c r="H37" s="7">
         <v>26</v>
@@ -6419,13 +6425,13 @@
         <v>28860</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>396</v>
+        <v>51</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -6434,13 +6440,13 @@
         <v>50617</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,7 +6502,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6518,7 +6524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9C74D0-E2B4-4AE6-9591-3ED7EEB7867C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014DC1C0-AEB9-4AA2-9A5C-38167CB3B7AA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6535,7 +6541,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6642,7 +6648,7 @@
         <v>2080</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -6657,7 +6663,7 @@
         <v>941</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -6672,10 +6678,10 @@
         <v>3021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>402</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -6714,7 +6720,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6744,7 +6750,7 @@
         <v>1060</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -6759,7 +6765,7 @@
         <v>1493</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
@@ -6774,13 +6780,13 @@
         <v>2553</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6822,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6905,7 +6911,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6914,13 +6920,13 @@
         <v>1857</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -6929,13 +6935,13 @@
         <v>1857</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,7 +6962,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6965,13 +6971,13 @@
         <v>976</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6980,13 +6986,13 @@
         <v>976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>416</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,7 +7010,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
@@ -7016,13 +7022,13 @@
         <v>943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -7031,13 +7037,13 @@
         <v>2752</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,7 +7064,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -7067,13 +7073,13 @@
         <v>921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -7082,13 +7088,13 @@
         <v>921</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,7 +7168,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7171,13 +7177,13 @@
         <v>922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7186,13 +7192,13 @@
         <v>922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7207,13 +7213,13 @@
         <v>2811</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>433</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -7222,13 +7228,13 @@
         <v>3332</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -7237,13 +7243,13 @@
         <v>6142</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,13 +7264,13 @@
         <v>1966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7273,13 +7279,13 @@
         <v>3375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -7288,13 +7294,13 @@
         <v>5340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>446</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,13 +7315,13 @@
         <v>4327</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7330,7 +7336,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -7339,13 +7345,13 @@
         <v>4326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7413,13 +7419,13 @@
         <v>4294</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -7428,13 +7434,13 @@
         <v>5148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>457</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7443,13 +7449,13 @@
         <v>9442</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7464,13 +7470,13 @@
         <v>2294</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7479,13 +7485,13 @@
         <v>3729</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -7494,13 +7500,13 @@
         <v>6023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,7 +7527,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7530,13 +7536,13 @@
         <v>1027</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -7545,13 +7551,13 @@
         <v>1027</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7572,13 @@
         <v>3168</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7581,13 +7587,13 @@
         <v>2772</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -7596,13 +7602,13 @@
         <v>5939</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7670,13 +7676,13 @@
         <v>1983</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7685,13 +7691,13 @@
         <v>4355</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7700,13 +7706,13 @@
         <v>6338</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,13 +7727,13 @@
         <v>4433</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>402</v>
+        <v>488</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7736,13 +7742,13 @@
         <v>2280</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7751,13 +7757,13 @@
         <v>6713</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>320</v>
+        <v>492</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7778,13 @@
         <v>5579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7793,7 +7799,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7802,13 +7808,13 @@
         <v>5579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7829,13 @@
         <v>2100</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -7838,13 +7844,13 @@
         <v>4445</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -7853,13 +7859,13 @@
         <v>6545</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>508</v>
+        <v>171</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7933,13 @@
         <v>2786</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>511</v>
+        <v>341</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -7945,10 +7951,10 @@
         <v>54</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -7957,13 +7963,13 @@
         <v>5581</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>74</v>
+        <v>511</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>345</v>
+        <v>512</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +7984,13 @@
         <v>2398</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -7993,13 +7999,13 @@
         <v>5856</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>519</v>
+        <v>364</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -8008,13 +8014,13 @@
         <v>8254</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8035,13 @@
         <v>6393</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -8044,13 +8050,13 @@
         <v>969</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -8059,13 +8065,13 @@
         <v>7362</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>387</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8086,13 @@
         <v>1800</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -8095,13 +8101,13 @@
         <v>12112</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8110,13 +8116,13 @@
         <v>13912</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,13 +8190,13 @@
         <v>11143</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -8199,13 +8205,13 @@
         <v>16019</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -8214,13 +8220,13 @@
         <v>27161</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,13 +8241,13 @@
         <v>11935</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H35" s="7">
         <v>14</v>
@@ -8250,13 +8256,13 @@
         <v>16173</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
@@ -8265,13 +8271,13 @@
         <v>28108</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,13 +8292,13 @@
         <v>16806</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -8301,13 +8307,13 @@
         <v>7808</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -8316,13 +8322,13 @@
         <v>24614</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,13 +8343,13 @@
         <v>11394</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -8352,13 +8358,13 @@
         <v>20249</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="M37" s="7">
         <v>28</v>
@@ -8367,13 +8373,13 @@
         <v>31644</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8429,7 +8435,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -8451,7 +8457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5066288F-7FBD-41C0-9AA2-828773A2A816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EA6C07-267C-46AD-8640-873A5A4AEC19}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8468,7 +8474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8573,39 +8579,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,39 +8624,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8663,39 +8669,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8708,39 +8714,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8753,39 +8759,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8802,7 +8808,7 @@
         <v>1196</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -8823,7 +8829,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -8832,7 +8838,7 @@
         <v>1196</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
@@ -8859,7 +8865,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -8868,7 +8874,7 @@
         <v>967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -8883,13 +8889,13 @@
         <v>967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8904,7 +8910,7 @@
         <v>2294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -8925,7 +8931,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8934,13 +8940,13 @@
         <v>2294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8961,7 +8967,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -8970,7 +8976,7 @@
         <v>1828</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
@@ -8985,13 +8991,13 @@
         <v>1828</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9059,13 +9065,13 @@
         <v>1404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -9074,13 +9080,13 @@
         <v>2311</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -9089,13 +9095,13 @@
         <v>3714</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>591</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9110,13 +9116,13 @@
         <v>907</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -9125,13 +9131,13 @@
         <v>1317</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>595</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -9140,13 +9146,13 @@
         <v>2224</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9161,13 +9167,13 @@
         <v>160</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9176,7 +9182,7 @@
         <v>988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>446</v>
+        <v>600</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
@@ -9242,13 +9248,13 @@
         <v>6676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>504</v>
+        <v>609</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9316,13 +9322,13 @@
         <v>4404</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>613</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -9448,7 +9454,7 @@
         <v>6115</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>633</v>
@@ -9576,10 +9582,10 @@
         <v>16</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>489</v>
+        <v>644</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>453</v>
+        <v>645</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -9588,13 +9594,13 @@
         <v>2742</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -9603,13 +9609,13 @@
         <v>6704</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9624,13 +9630,13 @@
         <v>1551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>650</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -9639,13 +9645,13 @@
         <v>858</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -9654,13 +9660,13 @@
         <v>2409</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>527</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9675,13 +9681,13 @@
         <v>925</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -9690,13 +9696,13 @@
         <v>2023</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -9705,13 +9711,13 @@
         <v>2948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9726,13 +9732,13 @@
         <v>9617</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -9741,13 +9747,13 @@
         <v>2721</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -9756,13 +9762,13 @@
         <v>12338</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9830,13 +9836,13 @@
         <v>4314</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -9845,10 +9851,10 @@
         <v>3396</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>136</v>
@@ -9860,13 +9866,13 @@
         <v>7710</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9887,7 +9893,7 @@
         <v>633</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -9896,13 +9902,13 @@
         <v>4339</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -9911,13 +9917,13 @@
         <v>9171</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9932,13 +9938,13 @@
         <v>5016</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>688</v>
+        <v>563</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -9947,13 +9953,13 @@
         <v>1658</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>436</v>
+        <v>691</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -9962,13 +9968,13 @@
         <v>6674</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>489</v>
+        <v>644</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9983,13 +9989,13 @@
         <v>6984</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -9998,13 +10004,13 @@
         <v>6000</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -10013,13 +10019,13 @@
         <v>12984</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10087,13 +10093,13 @@
         <v>15279</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H34" s="7">
         <v>17</v>
@@ -10102,13 +10108,13 @@
         <v>8767</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M34" s="7">
         <v>37</v>
@@ -10117,13 +10123,13 @@
         <v>24046</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10138,13 +10144,13 @@
         <v>8366</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H35" s="7">
         <v>19</v>
@@ -10153,13 +10159,13 @@
         <v>10475</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M35" s="7">
         <v>31</v>
@@ -10168,13 +10174,13 @@
         <v>18841</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10192,10 +10198,10 @@
         <v>89</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -10204,13 +10210,13 @@
         <v>6458</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>721</v>
+        <v>419</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -10219,13 +10225,13 @@
         <v>19178</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10240,13 +10246,13 @@
         <v>23097</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>399</v>
+        <v>729</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H37" s="7">
         <v>33</v>
@@ -10255,13 +10261,13 @@
         <v>21535</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M37" s="7">
         <v>58</v>
@@ -10270,13 +10276,13 @@
         <v>44633</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10332,7 +10338,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q20C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B52177-DD1A-4F81-BD3C-2CFA52585E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43875C7-2F39-417F-883F-BD54D167FCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2566C4CF-F36B-45E1-AE8D-E94348951CDC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C29AE65-ABD7-4E7D-AB93-2DF6091AA58A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="743">
   <si>
     <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2007 (Tasa respuesta: 1,32%)</t>
   </si>
@@ -134,19 +134,19 @@
     <t>16,64%</t>
   </si>
   <si>
-    <t>65,7%</t>
+    <t>69,76%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>37,3%</t>
+    <t>38,03%</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>78,1%</t>
+    <t>82,09%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -155,49 +155,49 @@
     <t>9,6%</t>
   </si>
   <si>
-    <t>38,5%</t>
+    <t>52,81%</t>
   </si>
   <si>
     <t>42,91%</t>
   </si>
   <si>
-    <t>82,87%</t>
+    <t>83,18%</t>
   </si>
   <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>68,52%</t>
+    <t>66,16%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>36,15%</t>
   </si>
   <si>
-    <t>78,08%</t>
+    <t>77,92%</t>
   </si>
   <si>
     <t>67,28%</t>
   </si>
   <si>
-    <t>19,53%</t>
+    <t>19,83%</t>
   </si>
   <si>
     <t>53,01%</t>
   </si>
   <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -206,2047 +206,2068 @@
     <t>12,86%</t>
   </si>
   <si>
-    <t>47,85%</t>
+    <t>55,23%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>34,83%</t>
+    <t>33,91%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>83,12%</t>
+    <t>82,83%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>63,19%</t>
+    <t>63,21%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>38,55%</t>
+    <t>45,3%</t>
   </si>
   <si>
     <t>49,76%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>57,72%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
   </si>
   <si>
     <t>53,88%</t>
   </si>
   <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>56,84%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>13,67%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>22,9%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>11,38%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
   </si>
   <si>
     <t>45,59%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
   </si>
   <si>
     <t>41,83%</t>
   </si>
   <si>
-    <t>51,25%</t>
+    <t>50,4%</t>
   </si>
 </sst>
 </file>
@@ -2658,7 +2679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FB5A4E-24BA-4261-BC16-F5A0FC9EE936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9343CE21-B5FC-41B3-83CC-8DE6ED872DCD}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3556,7 +3577,7 @@
         <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3568,13 +3589,13 @@
         <v>1990</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3583,13 +3604,13 @@
         <v>4723</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3640,13 @@
         <v>2921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3634,13 +3655,13 @@
         <v>2921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3676,13 @@
         <v>1073</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3670,13 +3691,13 @@
         <v>1795</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -3685,13 +3706,13 @@
         <v>2868</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3742,13 @@
         <v>3148</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3736,13 +3757,13 @@
         <v>3147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,7 +3819,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3810,13 +3831,13 @@
         <v>1920</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3825,13 +3846,13 @@
         <v>1966</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -3840,13 +3861,13 @@
         <v>3885</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3882,13 @@
         <v>847</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3876,13 +3897,13 @@
         <v>1951</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3891,13 +3912,13 @@
         <v>2798</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3933,13 @@
         <v>3624</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3927,13 +3948,13 @@
         <v>975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3942,13 +3963,13 @@
         <v>4599</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3984,13 @@
         <v>1710</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -3978,13 +3999,13 @@
         <v>5754</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -3993,13 +4014,13 @@
         <v>7464</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,7 +4076,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4067,13 +4088,13 @@
         <v>3270</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -4082,13 +4103,13 @@
         <v>2955</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4097,13 +4118,13 @@
         <v>6225</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4145,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -4133,13 +4154,13 @@
         <v>4588</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -4148,13 +4169,13 @@
         <v>4588</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,7 +4196,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -4190,7 +4211,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -4205,7 +4226,7 @@
         <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4241,13 @@
         <v>4403</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4235,13 +4256,13 @@
         <v>7948</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -4250,13 +4271,13 @@
         <v>12351</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4345,13 @@
         <v>8870</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -4339,13 +4360,13 @@
         <v>8690</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -4354,13 +4375,13 @@
         <v>17560</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4396,13 @@
         <v>3826</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -4390,13 +4411,13 @@
         <v>10495</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M35" s="7">
         <v>15</v>
@@ -4405,13 +4426,13 @@
         <v>14321</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4447,13 @@
         <v>7818</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -4441,13 +4462,13 @@
         <v>4518</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -4456,13 +4477,13 @@
         <v>12336</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4498,13 @@
         <v>12799</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H37" s="7">
         <v>26</v>
@@ -4492,13 +4513,13 @@
         <v>25309</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -4507,13 +4528,13 @@
         <v>38107</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,7 +4590,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +4612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D601437-09F3-4649-98E6-476081477CCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7892EF1-B9A9-4BE1-80C2-E1C062DA020C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4608,7 +4629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4715,13 +4736,13 @@
         <v>1051</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4730,7 +4751,7 @@
         <v>2052</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -4745,13 +4766,13 @@
         <v>3102</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4787,13 @@
         <v>1237</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4796,13 +4817,13 @@
         <v>1236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4853,13 @@
         <v>963</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4847,13 +4868,13 @@
         <v>963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4889,7 @@
         <v>2220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -4883,13 +4904,13 @@
         <v>1005</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4898,13 +4919,13 @@
         <v>3225</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4993,13 @@
         <v>861</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4987,13 +5008,13 @@
         <v>947</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -5002,13 +5023,13 @@
         <v>1808</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,7 +5080,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5095,13 @@
         <v>1845</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5089,10 +5110,10 @@
         <v>3048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>13</v>
@@ -5104,13 +5125,13 @@
         <v>4894</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5146,13 @@
         <v>1879</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5140,13 +5161,13 @@
         <v>959</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -5155,13 +5176,13 @@
         <v>2838</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5250,13 @@
         <v>1030</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5244,13 +5265,13 @@
         <v>5982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -5259,13 +5280,13 @@
         <v>7012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5301,13 @@
         <v>1749</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -5295,13 +5316,13 @@
         <v>4802</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -5310,13 +5331,13 @@
         <v>6551</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5352,13 @@
         <v>5575</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5346,13 +5367,13 @@
         <v>2911</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5361,13 +5382,13 @@
         <v>8487</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5403,13 @@
         <v>3905</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5397,13 +5418,13 @@
         <v>4204</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5412,13 +5433,13 @@
         <v>8109</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5507,13 @@
         <v>3469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -5501,13 +5522,13 @@
         <v>10003</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -5516,13 +5537,13 @@
         <v>13472</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5558,13 @@
         <v>4891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5552,13 +5573,13 @@
         <v>5540</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -5567,13 +5588,13 @@
         <v>10431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5609,13 @@
         <v>986</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5603,13 +5624,13 @@
         <v>3506</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5618,13 +5639,13 @@
         <v>4491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>299</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5660,13 @@
         <v>3299</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5654,13 +5675,13 @@
         <v>6669</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -5669,13 +5690,13 @@
         <v>9968</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>303</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,7 +5752,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5743,13 +5764,13 @@
         <v>1994</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5764,7 +5785,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5773,13 +5794,13 @@
         <v>1994</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5815,13 @@
         <v>986</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5809,13 +5830,13 @@
         <v>2362</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5824,13 +5845,13 @@
         <v>3349</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5866,13 @@
         <v>1059</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5860,13 +5881,13 @@
         <v>3125</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5875,13 +5896,13 @@
         <v>4185</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5917,13 @@
         <v>5249</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -5911,13 +5932,13 @@
         <v>5293</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M27" s="7">
         <v>10</v>
@@ -5926,13 +5947,13 @@
         <v>10541</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,7 +6009,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6000,13 +6021,13 @@
         <v>3053</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6015,13 +6036,13 @@
         <v>2977</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -6030,13 +6051,13 @@
         <v>6030</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6072,13 @@
         <v>3175</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6066,13 +6087,13 @@
         <v>992</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6081,13 +6102,13 @@
         <v>4167</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6123,13 @@
         <v>5065</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>347</v>
+        <v>91</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -6117,13 +6138,13 @@
         <v>3090</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -6132,13 +6153,13 @@
         <v>8155</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6174,13 @@
         <v>5205</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -6168,13 +6189,13 @@
         <v>10731</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>40</v>
+        <v>364</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -6183,13 +6204,13 @@
         <v>15936</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6278,13 @@
         <v>11456</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H34" s="7">
         <v>20</v>
@@ -6272,13 +6293,13 @@
         <v>21962</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M34" s="7">
         <v>31</v>
@@ -6287,13 +6308,13 @@
         <v>33418</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6329,13 @@
         <v>12038</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -6323,13 +6344,13 @@
         <v>13696</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
@@ -6338,13 +6359,13 @@
         <v>25734</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6380,13 @@
         <v>14531</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -6374,13 +6395,13 @@
         <v>16644</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -6389,13 +6410,13 @@
         <v>31175</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6431,13 @@
         <v>21756</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>391</v>
+        <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H37" s="7">
         <v>26</v>
@@ -6425,13 +6446,13 @@
         <v>28860</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>51</v>
+        <v>398</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -6440,13 +6461,13 @@
         <v>50617</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,7 +6523,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6524,7 +6545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014DC1C0-AEB9-4AA2-9A5C-38167CB3B7AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E871AF1B-08BD-4CF2-BB9D-E4EAC510EA90}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6541,7 +6562,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6648,7 +6669,7 @@
         <v>2080</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -6663,7 +6684,7 @@
         <v>941</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -6678,10 +6699,10 @@
         <v>3021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -6720,7 +6741,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6750,7 +6771,7 @@
         <v>1060</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -6765,7 +6786,7 @@
         <v>1493</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
@@ -6780,13 +6801,13 @@
         <v>2553</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,7 +6843,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6911,7 +6932,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6920,13 +6941,13 @@
         <v>1857</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -6935,13 +6956,13 @@
         <v>1857</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,7 +6983,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6971,13 +6992,13 @@
         <v>976</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6986,13 +7007,13 @@
         <v>976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,7 +7031,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
@@ -7022,13 +7043,13 @@
         <v>943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -7037,13 +7058,13 @@
         <v>2752</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,7 +7085,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -7073,13 +7094,13 @@
         <v>921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>353</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -7088,13 +7109,13 @@
         <v>921</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,7 +7189,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7177,13 +7198,13 @@
         <v>922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7192,13 +7213,13 @@
         <v>922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,13 +7234,13 @@
         <v>2811</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>436</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -7228,13 +7249,13 @@
         <v>3332</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -7243,13 +7264,13 @@
         <v>6142</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,13 +7285,13 @@
         <v>1966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7279,13 +7300,13 @@
         <v>3375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -7294,13 +7315,13 @@
         <v>5340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>171</v>
+        <v>450</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,13 +7336,13 @@
         <v>4327</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7336,7 +7357,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -7345,13 +7366,13 @@
         <v>4326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>450</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,13 +7440,13 @@
         <v>4294</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -7434,13 +7455,13 @@
         <v>5148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>181</v>
+        <v>460</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7449,13 +7470,13 @@
         <v>9442</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>456</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7491,13 @@
         <v>2294</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7485,13 +7506,13 @@
         <v>3729</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -7500,13 +7521,13 @@
         <v>6023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,7 +7548,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7536,13 +7557,13 @@
         <v>1027</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -7551,13 +7572,13 @@
         <v>1027</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,13 +7593,13 @@
         <v>3168</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7587,13 +7608,13 @@
         <v>2772</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -7602,13 +7623,13 @@
         <v>5939</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,7 +7685,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7676,13 +7697,13 @@
         <v>1983</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7691,13 +7712,13 @@
         <v>4355</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7706,13 +7727,13 @@
         <v>6338</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>484</v>
+        <v>257</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,13 +7748,13 @@
         <v>4433</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7742,13 +7763,13 @@
         <v>2280</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7757,13 +7778,13 @@
         <v>6713</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,13 +7799,13 @@
         <v>5579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7799,7 +7820,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7808,13 +7829,13 @@
         <v>5579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7850,13 @@
         <v>2100</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -7844,13 +7865,13 @@
         <v>4445</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -7859,13 +7880,13 @@
         <v>6545</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>171</v>
+        <v>512</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,7 +7942,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7933,13 +7954,13 @@
         <v>2786</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>341</v>
+        <v>515</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -7951,10 +7972,10 @@
         <v>54</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -7963,13 +7984,13 @@
         <v>5581</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>512</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,13 +8005,13 @@
         <v>2398</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -7999,13 +8020,13 @@
         <v>5856</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>364</v>
+        <v>524</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -8014,13 +8035,13 @@
         <v>8254</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8056,13 @@
         <v>6393</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -8050,13 +8071,13 @@
         <v>969</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -8065,13 +8086,13 @@
         <v>7362</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,13 +8107,13 @@
         <v>1800</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -8101,13 +8122,13 @@
         <v>12112</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8116,13 +8137,13 @@
         <v>13912</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,13 +8211,13 @@
         <v>11143</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -8205,13 +8226,13 @@
         <v>16019</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -8220,13 +8241,13 @@
         <v>27161</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8241,13 +8262,13 @@
         <v>11935</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>546</v>
+        <v>390</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="H35" s="7">
         <v>14</v>
@@ -8256,13 +8277,13 @@
         <v>16173</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>549</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
@@ -8271,13 +8292,13 @@
         <v>28108</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,13 +8313,13 @@
         <v>16806</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -8307,13 +8328,13 @@
         <v>7808</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -8322,13 +8343,13 @@
         <v>24614</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,13 +8364,13 @@
         <v>11394</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -8358,13 +8379,13 @@
         <v>20249</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>566</v>
+        <v>444</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="M37" s="7">
         <v>28</v>
@@ -8373,13 +8394,13 @@
         <v>31644</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8435,7 +8456,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -8457,7 +8478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EA6C07-267C-46AD-8640-873A5A4AEC19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3FEF71-19D7-41E0-A376-D717A17484DF}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8474,7 +8495,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8579,39 +8600,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8624,39 +8645,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,39 +8690,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8714,39 +8735,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8759,39 +8780,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8808,7 +8829,7 @@
         <v>1196</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -8829,7 +8850,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -8838,13 +8859,13 @@
         <v>1196</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8865,7 +8886,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -8874,7 +8895,7 @@
         <v>967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -8889,13 +8910,13 @@
         <v>967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8910,7 +8931,7 @@
         <v>2294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -8931,7 +8952,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8940,13 +8961,13 @@
         <v>2294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8967,7 +8988,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -8976,7 +8997,7 @@
         <v>1828</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
@@ -8991,13 +9012,13 @@
         <v>1828</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9065,13 +9086,13 @@
         <v>1404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -9080,13 +9101,13 @@
         <v>2311</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -9095,13 +9116,13 @@
         <v>3714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9116,13 +9137,13 @@
         <v>907</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -9131,13 +9152,13 @@
         <v>1317</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -9146,13 +9167,13 @@
         <v>2224</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9167,13 +9188,13 @@
         <v>160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9182,13 +9203,13 @@
         <v>988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>601</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -9197,13 +9218,13 @@
         <v>1147</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9218,13 +9239,13 @@
         <v>2584</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -9233,13 +9254,13 @@
         <v>4093</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -9248,13 +9269,13 @@
         <v>6676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9322,13 +9343,13 @@
         <v>4404</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>621</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -9337,13 +9358,13 @@
         <v>319</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -9352,13 +9373,13 @@
         <v>4722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9373,13 +9394,13 @@
         <v>1076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -9388,13 +9409,13 @@
         <v>2994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -9403,13 +9424,13 @@
         <v>4070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9424,13 +9445,13 @@
         <v>4325</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -9439,13 +9460,13 @@
         <v>1790</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -9454,13 +9475,13 @@
         <v>6115</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9475,13 +9496,13 @@
         <v>3913</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -9490,13 +9511,13 @@
         <v>6894</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -9505,13 +9526,13 @@
         <v>10807</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9567,7 +9588,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9582,10 +9603,10 @@
         <v>16</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -9594,13 +9615,13 @@
         <v>2742</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>647</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -9609,13 +9630,13 @@
         <v>6704</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9630,13 +9651,13 @@
         <v>1551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>659</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -9645,13 +9666,13 @@
         <v>858</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>653</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -9660,13 +9681,13 @@
         <v>2409</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9681,13 +9702,13 @@
         <v>925</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>658</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -9696,13 +9717,13 @@
         <v>2023</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -9711,13 +9732,13 @@
         <v>2948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9732,13 +9753,13 @@
         <v>9617</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -9747,13 +9768,13 @@
         <v>2721</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -9762,13 +9783,13 @@
         <v>12338</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9824,7 +9845,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9836,13 +9857,13 @@
         <v>4314</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>676</v>
+        <v>186</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>215</v>
+        <v>682</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -9851,13 +9872,13 @@
         <v>3396</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -9866,13 +9887,13 @@
         <v>7710</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9890,10 +9911,10 @@
         <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>633</v>
+        <v>688</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -9902,13 +9923,13 @@
         <v>4339</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -9917,13 +9938,13 @@
         <v>9171</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9938,13 +9959,13 @@
         <v>5016</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>563</v>
+        <v>697</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -9953,13 +9974,13 @@
         <v>1658</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -9968,13 +9989,13 @@
         <v>6674</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>644</v>
+        <v>702</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9989,13 +10010,13 @@
         <v>6984</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -10004,13 +10025,13 @@
         <v>6000</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -10019,13 +10040,13 @@
         <v>12984</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10093,13 +10114,13 @@
         <v>15279</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="H34" s="7">
         <v>17</v>
@@ -10108,13 +10129,13 @@
         <v>8767</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="M34" s="7">
         <v>37</v>
@@ -10123,13 +10144,13 @@
         <v>24046</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>711</v>
+        <v>603</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10144,13 +10165,13 @@
         <v>8366</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="H35" s="7">
         <v>19</v>
@@ -10159,13 +10180,13 @@
         <v>10475</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="M35" s="7">
         <v>31</v>
@@ -10174,13 +10195,13 @@
         <v>18841</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10195,13 +10216,13 @@
         <v>12719</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -10210,13 +10231,13 @@
         <v>6458</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>419</v>
+        <v>731</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>723</v>
+        <v>104</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -10225,13 +10246,13 @@
         <v>19178</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>727</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10246,13 +10267,13 @@
         <v>23097</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="H37" s="7">
         <v>33</v>
@@ -10261,13 +10282,13 @@
         <v>21535</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="M37" s="7">
         <v>58</v>
@@ -10276,13 +10297,13 @@
         <v>44633</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>404</v>
+        <v>560</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10338,7 +10359,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
